--- a/AAAGameData/DataTables/VehicleInfoTable.xlsx
+++ b/AAAGameData/DataTables/VehicleInfoTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -78,27 +78,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Car/MuMaRenImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆名称KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VEHICLE.MU_MA_REN_2024</t>
+    <t>CarDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car/MuMaRenImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆LOGO资产名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car/Logo/MuMaRenLogo.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_NAME.MU_MA_REN_2024</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CarDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛皮</t>
+    <t>CAR_DESC.MU_MA_REN_2024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +448,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +457,9 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,9 +488,11 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -498,6 +514,9 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -510,15 +529,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -532,13 +553,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/AAAGameData/DataTables/VehicleInfoTable.xlsx
+++ b/AAAGameData/DataTables/VehicleInfoTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -111,6 +111,33 @@
   </si>
   <si>
     <t>CAR_DESC.MU_MA_REN_2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>车辆初始动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆初始制动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆初始加速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,9 +488,11 @@
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,9 +522,17 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -517,8 +554,17 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -540,9 +586,17 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -564,14 +618,23 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>999</v>
+      </c>
+      <c r="J5">
+        <v>999</v>
+      </c>
+      <c r="K5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/VehicleInfoTable.xlsx
+++ b/AAAGameData/DataTables/VehicleInfoTable.xlsx
@@ -90,19 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Car/MuMaRenImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CarLogo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车辆LOGO资产名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car/Logo/MuMaRenLogo.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,6 +130,14 @@
   </si>
   <si>
     <t>车辆初始加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLogos/0/MuMaRenLogo.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cars/0/MuMaRenImage.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
@@ -520,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -555,13 +555,13 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -584,16 +584,16 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -607,16 +607,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>999</v>
